--- a/Appointment_List.xlsx
+++ b/Appointment_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\SC2002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D765C7-1438-40C8-8F7C-DEAD7143DEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1106A947-39B5-418E-9B79-C5570C0E26C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{877EF473-33D4-4818-B04B-2D2C314AF0C4}"/>
+    <workbookView xWindow="5985" yWindow="810" windowWidth="21600" windowHeight="11295" xr2:uid="{877EF473-33D4-4818-B04B-2D2C314AF0C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>APT ID</t>
   </si>
@@ -86,79 +86,46 @@
     <t>Alice Brown</t>
   </si>
   <si>
-    <t>2026-02-02 02:02</t>
+    <t>2027-03-05 10:00</t>
   </si>
   <si>
     <t>pending</t>
   </si>
   <si>
-    <t>cancelled</t>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>paid</t>
   </si>
   <si>
     <t>APT2</t>
   </si>
   <si>
-    <t>2025-03-03 10:30</t>
+    <t>2026-03-06 03:03</t>
+  </si>
+  <si>
+    <t>Price ($)</t>
+  </si>
+  <si>
+    <t>APT3</t>
+  </si>
+  <si>
+    <t>2028-03-03 10:00</t>
   </si>
   <si>
     <t>confirmed</t>
   </si>
   <si>
-    <t>APT3</t>
-  </si>
-  <si>
-    <t>2026-03-10 10:10</t>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>unpaid</t>
   </si>
   <si>
     <t>APT4</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>APT5</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>APT6</t>
-  </si>
-  <si>
-    <t>2025-03-01 20:20</t>
-  </si>
-  <si>
-    <t>APT7</t>
-  </si>
-  <si>
-    <t>2025-06-07 03:03</t>
-  </si>
-  <si>
-    <t>APT8</t>
-  </si>
-  <si>
-    <t>2025-06-07 10:30</t>
-  </si>
-  <si>
-    <t>APT9</t>
-  </si>
-  <si>
-    <t>2027-06-03 10:30</t>
-  </si>
-  <si>
-    <t>APT10</t>
-  </si>
-  <si>
-    <t>2025-03-02 10:30</t>
-  </si>
-  <si>
-    <t>APT11</t>
-  </si>
-  <si>
-    <t>2026-03-10 10:30</t>
+    <t>2029-03-06 04:30</t>
   </si>
 </sst>
 </file>
@@ -531,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A6F2D2-9B8A-4EAD-AB99-BF9B532826C4}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +510,7 @@
     <col min="6" max="6" customWidth="true" width="24.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>6</v>
       </c>
@@ -577,8 +544,11 @@
       <c r="K1" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="L1" t="s" s="0">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
@@ -598,10 +568,22 @@
         <v>16</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>11</v>
       </c>
@@ -609,7 +591,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>14</v>
@@ -618,10 +600,22 @@
         <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>14</v>
@@ -641,22 +635,25 @@
         <v>15</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>100.3</v>
       </c>
     </row>
     <row r="5">
@@ -667,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>14</v>
@@ -676,255 +673,25 @@
         <v>15</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s" s="0">
         <v>17</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s" s="0">
-        <v>17</v>
+      <c r="L5" t="n" s="0">
+        <v>100.77</v>
       </c>
     </row>
   </sheetData>

--- a/Appointment_List.xlsx
+++ b/Appointment_List.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\SC2002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1106A947-39B5-418E-9B79-C5570C0E26C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD622E34-BB65-453D-9179-82DE9323341D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="810" windowWidth="21600" windowHeight="11295" xr2:uid="{877EF473-33D4-4818-B04B-2D2C314AF0C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{877EF473-33D4-4818-B04B-2D2C314AF0C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>APT ID</t>
   </si>
@@ -71,6 +71,9 @@
     <t>Prescription</t>
   </si>
   <si>
+    <t>Price ($)</t>
+  </si>
+  <si>
     <t>D001</t>
   </si>
   <si>
@@ -86,46 +89,40 @@
     <t>Alice Brown</t>
   </si>
   <si>
-    <t>2027-03-05 10:00</t>
+    <t>2026-08-08 08:08</t>
   </si>
   <si>
     <t>pending</t>
   </si>
   <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>APT2</t>
+  </si>
+  <si>
+    <t>APT3</t>
+  </si>
+  <si>
+    <t>2027-03-06 10:10</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
     <t>asd</t>
   </si>
   <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>dispensed</t>
+  </si>
+  <si>
+    <t>unpaid</t>
+  </si>
+  <si>
     <t>paid</t>
-  </si>
-  <si>
-    <t>APT2</t>
-  </si>
-  <si>
-    <t>2026-03-06 03:03</t>
-  </si>
-  <si>
-    <t>Price ($)</t>
-  </si>
-  <si>
-    <t>APT3</t>
-  </si>
-  <si>
-    <t>2028-03-03 10:00</t>
-  </si>
-  <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>unpaid</t>
-  </si>
-  <si>
-    <t>APT4</t>
-  </si>
-  <si>
-    <t>2029-03-06 04:30</t>
   </si>
 </sst>
 </file>
@@ -162,8 +159,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,19 +496,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A6F2D2-9B8A-4EAD-AB99-BF9B532826C4}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="17.140625"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125"/>
+    <col min="5" max="5" customWidth="true" width="17.109375"/>
+    <col min="6" max="6" customWidth="true" width="24.5546875"/>
+    <col min="12" max="12" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>6</v>
       </c>
@@ -544,154 +543,92 @@
       <c r="K1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="0">
-        <v>22</v>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="H2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>20</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>18</v>
-      </c>
       <c r="I4" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="L4" t="n" s="0">
-        <v>100.3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="L5" t="n" s="0">
-        <v>100.77</v>
+        <v>26</v>
+      </c>
+      <c r="L4" t="n" s="1">
+        <v>1234.99</v>
       </c>
     </row>
   </sheetData>

--- a/Appointment_List.xlsx
+++ b/Appointment_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zain\Desktop\code\final\OOP-Personal-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD622E34-BB65-453D-9179-82DE9323341D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D38000F-F84D-408D-8033-1CB7AB4D5F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{877EF473-33D4-4818-B04B-2D2C314AF0C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>APT ID</t>
   </si>
@@ -71,58 +71,73 @@
     <t>Prescription</t>
   </si>
   <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>P1001</t>
+  </si>
+  <si>
+    <t>APT1</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>Alice Brown</t>
+  </si>
+  <si>
+    <t>2027-03-05 10:00</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>APT2</t>
+  </si>
+  <si>
+    <t>2026-03-06 03:03</t>
+  </si>
+  <si>
     <t>Price ($)</t>
   </si>
   <si>
-    <t>D001</t>
-  </si>
-  <si>
-    <t>P1001</t>
-  </si>
-  <si>
-    <t>APT1</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>Alice Brown</t>
-  </si>
-  <si>
-    <t>2026-08-08 08:08</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>APT2</t>
-  </si>
-  <si>
     <t>APT3</t>
   </si>
   <si>
-    <t>2027-03-06 10:10</t>
+    <t>2028-03-03 10:00</t>
+  </si>
+  <si>
+    <t>APT4</t>
+  </si>
+  <si>
+    <t>2029-03-06 04:30</t>
+  </si>
+  <si>
+    <t>APT5</t>
+  </si>
+  <si>
+    <t>2029-03-04 04:04</t>
   </si>
   <si>
     <t>confirmed</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
     <t>completed</t>
   </si>
   <si>
-    <t>dispensed</t>
-  </si>
-  <si>
     <t>unpaid</t>
   </si>
   <si>
-    <t>paid</t>
+    <t>APT6</t>
+  </si>
+  <si>
+    <t>2027-03-03 10:10</t>
   </si>
 </sst>
 </file>
@@ -496,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A6F2D2-9B8A-4EAD-AB99-BF9B532826C4}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,91 +559,229 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="B2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>17</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>19</v>
       </c>
+      <c r="H2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>12</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>20</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="F3" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>19</v>
       </c>
+      <c r="H3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>13</v>
-      </c>
       <c r="C4" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="F4" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>100.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="H4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="L4" t="n" s="1">
-        <v>1234.99</v>
+      <c r="G6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L6" t="n" s="1">
+        <v>100000.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L7" t="n" s="1">
+        <v>1234.11</v>
       </c>
     </row>
   </sheetData>

--- a/Appointment_List.xlsx
+++ b/Appointment_List.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zain\Desktop\code\final\OOP-Personal-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\oop-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D38000F-F84D-408D-8033-1CB7AB4D5F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1F7502-41B9-4F80-B767-670094D833D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{877EF473-33D4-4818-B04B-2D2C314AF0C4}"/>
+    <workbookView xWindow="1905" yWindow="600" windowWidth="21600" windowHeight="11295" xr2:uid="{877EF473-33D4-4818-B04B-2D2C314AF0C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>APT ID</t>
   </si>
@@ -71,80 +71,13 @@
     <t>Prescription</t>
   </si>
   <si>
-    <t>D001</t>
-  </si>
-  <si>
-    <t>P1001</t>
-  </si>
-  <si>
-    <t>APT1</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>Alice Brown</t>
-  </si>
-  <si>
-    <t>2027-03-05 10:00</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>APT2</t>
-  </si>
-  <si>
-    <t>2026-03-06 03:03</t>
-  </si>
-  <si>
     <t>Price ($)</t>
-  </si>
-  <si>
-    <t>APT3</t>
-  </si>
-  <si>
-    <t>2028-03-03 10:00</t>
-  </si>
-  <si>
-    <t>APT4</t>
-  </si>
-  <si>
-    <t>2029-03-06 04:30</t>
-  </si>
-  <si>
-    <t>APT5</t>
-  </si>
-  <si>
-    <t>2029-03-04 04:04</t>
-  </si>
-  <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>unpaid</t>
-  </si>
-  <si>
-    <t>APT6</t>
-  </si>
-  <si>
-    <t>2027-03-03 10:10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,277 +444,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A6F2D2-9B8A-4EAD-AB99-BF9B532826C4}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="17.109375"/>
-    <col min="6" max="6" customWidth="true" width="24.5546875"/>
-    <col min="12" max="12" style="1" width="8.88671875"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1">
-        <v>100.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1">
-        <v>100.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="L6" t="n" s="1">
-        <v>100000.55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="L7" t="n" s="1">
-        <v>1234.11</v>
       </c>
     </row>
   </sheetData>
